--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2972820.404626348</v>
+        <v>2991195.094092468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>156.2386663830953</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>157.7102488650009</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.29443981013525</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>306.2374814441581</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>74.58350059176986</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>83.82466560786628</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>266.6154080501266</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.38082832435528</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>84.50523295012302</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.35503333538749</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7053919670787</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>15.40112586586451</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.2797837049395</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.90536771396965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.50770191957345</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>238.2336684417132</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>33.11742795012835</v>
+        <v>138.3863005245258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>20.49722302543293</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>12.25082275066701</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.2422920270589</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,16 +3481,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498035</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>42.15808507734017</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>33.35146980185876</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>561.3098882767933</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4401,13 +4401,13 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330953</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>270.0191909330953</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="C5" t="n">
-        <v>1487.242648509747</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="D5" t="n">
-        <v>1487.242648509747</v>
+        <v>1344.017816594645</v>
       </c>
       <c r="E5" t="n">
-        <v>1101.454395911503</v>
+        <v>958.2295639964011</v>
       </c>
       <c r="F5" t="n">
-        <v>690.4684911218951</v>
+        <v>547.2436592067936</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>129.2798511049805</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4659,28 +4659,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1289.017815868389</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="C8" t="n">
-        <v>1289.017815868389</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7521172616389</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>930.7521172616389</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>519.7662124720314</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>101.8024043702183</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>101.8024043702183</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.483574129469</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.017815868389</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.017815868389</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>540.2297667159844</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
       <c r="W10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
       <c r="X10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.2297667159844</v>
+        <v>471.403877728658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.032036247722</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>991.90339746128</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>737.2189092553931</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>447.8017392184324</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>994.3109288932103</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,7 +5510,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306376</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027308</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>4520.375241843984</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X19" t="n">
-        <v>754.894602230607</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y19" t="n">
-        <v>678.2225136306376</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3627.330715596854</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596854</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596854</v>
+        <v>183.5885075406631</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>183.5885075406631</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>183.5885075406631</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>183.5885075406631</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>183.5885075406631</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>4620.214503881249</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V22" t="n">
-        <v>4365.530015675362</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W22" t="n">
-        <v>4076.112845638401</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X22" t="n">
-        <v>3848.123294740384</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y22" t="n">
-        <v>3627.330715596854</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7969603949465</v>
+        <v>964.135741824786</v>
       </c>
       <c r="C25" t="n">
-        <v>560.7969603949465</v>
+        <v>964.135741824786</v>
       </c>
       <c r="D25" t="n">
-        <v>560.7969603949465</v>
+        <v>814.0191024124503</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
         <v>527.3450129705744</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X25" t="n">
-        <v>781.5895395384766</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.7969603949465</v>
+        <v>964.135741824786</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4093.25603081147</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C28" t="n">
-        <v>4093.25603081147</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>4072.551765129214</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546821</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="V28" t="n">
-        <v>4093.25603081147</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="W28" t="n">
-        <v>4093.25603081147</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="X28" t="n">
-        <v>4093.25603081147</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y28" t="n">
-        <v>4093.25603081147</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6646,19 +6646,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>385.5899330013836</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6537500734767</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>216.6537500734767</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W34" t="n">
-        <v>385.5899330013836</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X34" t="n">
-        <v>385.5899330013836</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y34" t="n">
-        <v>385.5899330013836</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>136.7278130442839</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,19 +7190,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X40" t="n">
-        <v>318.009670603816</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,25 +7406,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>865.4928396191511</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C43" t="n">
-        <v>696.5566566912443</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706986</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4520.375241843984</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.130855347408</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X43" t="n">
-        <v>1047.141304449391</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y43" t="n">
-        <v>1047.141304449391</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7637,19 +7637,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7664,28 +7664,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954967</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954967</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>182.0340742867947</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>180.0237016735873</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>127.646125010065</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>180.0237016735873</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714844</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714844</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720754</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.023701673587</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>62.79465928983132</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.842169091310524</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.1218724707265</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>90.96703739368833</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.6792856381251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>24.91154354469853</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.00368395686414</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.3165346964408</v>
+        <v>8.047662122043391</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.1182499927794</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>273.9865296479103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>28.19167061951025</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.31591677926856</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>140.7163658137792</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25600,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>106.4573879408722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>77.06777566241323</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029916</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172486.5956251889</v>
+        <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>417481.2835893554</v>
+        <v>420009.6047527979</v>
       </c>
       <c r="D6" t="n">
-        <v>417481.2835893553</v>
+        <v>420009.6047527977</v>
       </c>
       <c r="E6" t="n">
-        <v>-3287.778648692445</v>
+        <v>-1252.95941069581</v>
       </c>
       <c r="F6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="G6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="H6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="I6" t="n">
-        <v>521872.2578282037</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="J6" t="n">
-        <v>345449.0386356107</v>
+        <v>347483.8578736075</v>
       </c>
       <c r="K6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="L6" t="n">
-        <v>521872.2578282035</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="M6" t="n">
-        <v>387071.2425943663</v>
+        <v>389106.0618323633</v>
       </c>
       <c r="N6" t="n">
-        <v>521872.2578282039</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="O6" t="n">
-        <v>521872.2578282039</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="P6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>209.0342253879123</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>224.2201212072608</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>123.1395228364339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>107.5466885766369</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>249.3392721725873</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>62.84052637229158</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>88.06763357055638</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>104.550487920506</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>95.32674723181428</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>172.7905056146314</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,7 +35419,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>389.1274892183194</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>490.4480787240536</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>532.9342021211282</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7395399415897</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>490.4480787240536</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109142</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109142</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37640,7 +37640,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415095</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296114</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>269.888074221356</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991195.094092468</v>
+        <v>3066724.763757273</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818569.875074532</v>
+        <v>8818569.875074534</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>157.7102488650009</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>155.896499275192</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>74.58350059176986</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>234.8567811114155</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.2620823710468</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>266.6154080501266</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.27982651327849</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.50523295012302</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>20.48699093885616</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>206.7078495256</v>
       </c>
       <c r="W13" t="n">
-        <v>15.40112586586451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.2797837049395</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>250.0564830815503</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.50770191957345</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>211.4593910168942</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>138.3863005245258</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>222.77146259393</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>12.25082275066701</v>
+        <v>61.81052995517192</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.82735133283877</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.64843562452423</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>177.1578134013913</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.11561436815803</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>204.8296960944073</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>73.39149037925723</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>252.7418183710059</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>40.17337749928348</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>561.3098882767933</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2054.709917111894</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1701.94126184178</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.283515201396</v>
+        <v>1310.22335213854</v>
       </c>
       <c r="C5" t="n">
-        <v>1702.283515201396</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.017816594645</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>958.2295639964011</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>547.2436592067936</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2798511049805</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2404.891329719003</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2073.828442375432</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2073.828442375432</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>1700.362684114352</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.283515201396</v>
+        <v>1310.22335213854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4659,28 +4661,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>643.4576048045491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>643.4576048045491</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1305.667163696621</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="C8" t="n">
-        <v>1305.667163696621</v>
+        <v>1057.853444972532</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1057.853444972532</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1057.853444972532</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>646.8675401829248</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>228.9037320811117</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1305.667163696621</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.0450565669176</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>386.0450565669176</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>471.403877728658</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>471.403877728658</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>471.403877728658</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.403877728658</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5036,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932103</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653034</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529677</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W13" t="n">
-        <v>994.3109288932103</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X13" t="n">
-        <v>994.3109288932103</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.3109288932103</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5257,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916677</v>
+        <v>4205.831222897543</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916677</v>
+        <v>4036.895039969635</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916677</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916677</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916677</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>4744.160657054477</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T19" t="n">
-        <v>4520.375241843984</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U19" t="n">
-        <v>4231.246603057542</v>
+        <v>4608.272266871312</v>
       </c>
       <c r="V19" t="n">
-        <v>3976.562114851655</v>
+        <v>4608.272266871312</v>
       </c>
       <c r="W19" t="n">
-        <v>3687.144944814694</v>
+        <v>4608.272266871312</v>
       </c>
       <c r="X19" t="n">
-        <v>3459.155393916677</v>
+        <v>4608.272266871312</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.155393916677</v>
+        <v>4387.479687727782</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,19 +5834,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>333.7051469529988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>333.7051469529988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>183.5885075406631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>183.5885075406631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>183.5885075406631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>183.5885075406631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>183.5885075406631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V22" t="n">
-        <v>964.135741824786</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>964.135741824786</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>736.1461909267687</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.3536117832385</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -6075,13 +6077,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.135741824786</v>
+        <v>4187.050763584937</v>
       </c>
       <c r="C25" t="n">
-        <v>964.135741824786</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="D25" t="n">
-        <v>814.0191024124503</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W25" t="n">
-        <v>964.135741824786</v>
+        <v>4635.832893626484</v>
       </c>
       <c r="X25" t="n">
-        <v>964.135741824786</v>
+        <v>4407.843342728467</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.135741824786</v>
+        <v>4187.050763584937</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0255547109412</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830343</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1375.466598684711</v>
+        <v>4574.634279061201</v>
       </c>
       <c r="V28" t="n">
-        <v>1375.466598684711</v>
+        <v>4319.949790855314</v>
       </c>
       <c r="W28" t="n">
-        <v>1375.466598684711</v>
+        <v>4030.532620818353</v>
       </c>
       <c r="X28" t="n">
-        <v>1375.466598684711</v>
+        <v>4030.532620818353</v>
       </c>
       <c r="Y28" t="n">
-        <v>1154.674019541181</v>
+        <v>3809.740041674823</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4811.534016112435</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4811.534016112435</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4587.748600901941</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>4298.619962115499</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>4298.619962115499</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>4298.619962115499</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>4070.630411217482</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>4070.630411217482</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1440.685527502827</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1440.685527502827</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>1186.00103929694</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W34" t="n">
-        <v>896.5838692599799</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X34" t="n">
-        <v>668.5943183619626</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184324</v>
+        <v>695.9798268587604</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3474.117534194711</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>4278.529112458862</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W37" t="n">
-        <v>585.5099430858313</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="X37" t="n">
-        <v>357.520392187814</v>
+        <v>4288.196298446587</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7278130442839</v>
+        <v>4067.403719303057</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7260,7 +7262,7 @@
         <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>3887.539261805027</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1306.350032969985</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.221394183544</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V40" t="n">
-        <v>762.5369059776569</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="W40" t="n">
-        <v>473.1197359406963</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="X40" t="n">
-        <v>245.130185042679</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.130185042679</v>
+        <v>3961.672080369934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054477</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843984</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057542</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851655</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>1043.701494442136</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>1043.701494442136</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7627,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7664,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,13 +7681,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7813,7 +7815,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1123.476582718039</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1123.476582718039</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>895.4870318200215</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,7 +8701,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>199.7396287231153</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>28.12263706262951</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>286.5092576192336</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>45.42979379822802</v>
       </c>
       <c r="W13" t="n">
-        <v>271.1218724707265</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>90.96703739368833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.336743106266425</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>36.18086931702706</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>24.91154354469853</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>8.047662122043391</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>63.75153574266105</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>273.9865296479103</v>
+        <v>224.4268224434054</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>61.13700107095402</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.31591677926856</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>48.55184198764587</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.7163658137792</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>20.87995929462988</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>106.4404898026801</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>33.7811799655851</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>211.9642658245445</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764883</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764883</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
@@ -26332,28 +26334,28 @@
         <v>645197.9485672193</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230232</v>
@@ -26439,22 +26441,22 @@
         <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="K4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26522,43 +26524,43 @@
         <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>420009.6047527979</v>
+        <v>420009.6047527975</v>
       </c>
       <c r="D6" t="n">
         <v>420009.6047527977</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.95941069581</v>
+        <v>-1252.959410695898</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662004</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662004</v>
+        <v>523907.0770662003</v>
       </c>
       <c r="H6" t="n">
         <v>523907.0770662004</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662004</v>
+        <v>523907.0770662003</v>
       </c>
       <c r="J6" t="n">
-        <v>347483.8578736075</v>
+        <v>347483.8578736074</v>
       </c>
       <c r="K6" t="n">
         <v>523907.0770662006</v>
       </c>
       <c r="L6" t="n">
-        <v>523907.0770662006</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323633</v>
+        <v>389106.0618323636</v>
       </c>
       <c r="N6" t="n">
+        <v>523907.0770662008</v>
+      </c>
+      <c r="O6" t="n">
         <v>523907.0770662007</v>
-      </c>
-      <c r="O6" t="n">
-        <v>523907.0770662006</v>
       </c>
       <c r="P6" t="n">
         <v>523907.0770662006</v>
@@ -26716,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26938,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>224.2201212072608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>171.8557591949429</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>125.566801220841</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>249.3392721725873</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>16.36738639687377</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>18.56989781089052</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>62.84052637229158</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>88.06763357055638</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>302.6429462510787</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.32674723181428</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.0360073977349</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,16 +35412,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>532.9342021211282</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>338.5470141130958</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37867,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>619.7038310172466</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066724.763757273</v>
+        <v>3059707.748865562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818569.875074534</v>
+        <v>8818569.875074532</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>269.010098463741</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>155.896499275192</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>30.60408762095413</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>51.04467479678607</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>234.8567811114155</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.2620823710468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>86.34579418975117</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>296.7607853996625</v>
       </c>
       <c r="H8" t="n">
-        <v>21.27982651327849</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>20.48699093885616</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7078495256</v>
+        <v>80.37630218413125</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.2787299119459</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
-        <v>250.0564830815503</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.4593910168942</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>222.77146259393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>61.81052995517192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.82735133283877</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>177.1578134013913</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>204.8296960944073</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.39149037925723</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>155.8666995316643</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>252.7418183710059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>40.17337749928348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2054.709917111894</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1701.94126184178</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1328.4755035807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.4755035807</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321493</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198135</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>231.7461491374204</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>84.85620163951003</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>84.85620163951003</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>934.4529722842963</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>523.4670674946888</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>105.5032593928756</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>105.5032593928756</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2404.891329719003</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2073.828442375432</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.828442375432</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1700.362684114352</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1310.22335213854</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426.815961912944</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1057.853444972532</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>1057.853444972532</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>1057.853444972532</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="F8" t="n">
-        <v>646.8675401829248</v>
+        <v>353.7013509109326</v>
       </c>
       <c r="G8" t="n">
-        <v>228.9037320811117</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.815961912944</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,43 +4889,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,7 +5032,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,10 +5056,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,13 +5202,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>755.3399342231696</v>
+        <v>1128.599447747086</v>
       </c>
       <c r="W13" t="n">
-        <v>465.9227641862091</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,43 +5263,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980821</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,25 +5518,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635876</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4205.831222897543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4036.895039969635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>4608.272266871312</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>4608.272266871312</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>4608.272266871312</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>4608.272266871312</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>4387.479687727782</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.400916011945</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>796.2722772255036</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>4635.832893626484</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>4407.843342728467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4574.634279061201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4319.949790855314</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4030.532620818353</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4030.532620818353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3809.740041674823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3888.981946387242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3888.981946387242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4811.534016112435</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4811.534016112435</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4587.748600901941</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4298.619962115499</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4298.619962115499</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4298.619962115499</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4070.630411217482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4070.630411217482</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.9798268587604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>874.927113122792</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>874.927113122792</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>874.927113122792</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>695.9798268587604</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.9798268587604</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3474.117534194711</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4278.529112458862</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4558.069177677559</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4495.094981370231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4495.094981370231</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4288.196298446587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4067.403719303057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3887.539261805027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3718.60307887712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3718.60307887712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4182.464659513464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4182.464659513464</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4182.464659513464</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3961.672080369934</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.9089152986054</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C43" t="n">
-        <v>653.9727323706985</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706985</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>1043.701494442136</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>1043.701494442136</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.9089152986054</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211722</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113634</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1123.476582718039</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.476582718039</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>895.4870318200215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.65987261462459</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>28.12263706262951</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>286.5092576192336</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.42979379822802</v>
+        <v>171.7613411396968</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.336743106266425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
-        <v>36.18086931702706</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>10.08817004149506</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.75153574266105</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>224.4268224434054</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>61.13700107095402</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>48.55184198764587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>20.87995929462988</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.4404898026801</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>11.38012156696357</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>33.7811799655851</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>211.9642658245445</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764878</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764883</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764883</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672198</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672193</v>
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,16 +26447,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>420009.6047527975</v>
+        <v>420009.6047527976</v>
       </c>
       <c r="D6" t="n">
-        <v>420009.6047527977</v>
+        <v>420009.6047527976</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695898</v>
+        <v>-2227.550670417554</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064788</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662003</v>
+        <v>522932.4858064788</v>
       </c>
       <c r="H6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662003</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="J6" t="n">
-        <v>347483.8578736074</v>
+        <v>346509.2666138862</v>
       </c>
       <c r="K6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="L6" t="n">
-        <v>523907.0770662007</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323636</v>
+        <v>388131.4705726415</v>
       </c>
       <c r="N6" t="n">
-        <v>523907.0770662008</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="O6" t="n">
-        <v>523907.0770662007</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="P6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064787</v>
       </c>
     </row>
   </sheetData>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>171.8557591949429</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.566801220841</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99302522630197</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100.8866414480752</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>16.36738639687377</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.56989781089052</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>125.7997447602677</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>117.0233846211325</v>
       </c>
       <c r="H8" t="n">
-        <v>302.6429462510787</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>266.0360073977349</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>250.7532875461493</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>338.5470141130958</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>619.7038310172466</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3059707.748865562</v>
+        <v>3064647.011714594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>269.010098463741</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>23.8706712247265</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7166301627352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>192.1063192642652</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>51.04467479678607</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>86.34579418975117</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.0275088281772</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>296.7607853996625</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.9034242686412</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.4548648132221</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896902</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>80.37630218413125</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>15.98360398438597</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8666995316643</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>558.7154669051573</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.6273375774088</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>549.6273375774088</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.6273375774088</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>1504.879971633457</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.241224882541</v>
+        <v>1146.614273026707</v>
       </c>
       <c r="E5" t="n">
-        <v>934.4529722842963</v>
+        <v>1146.614273026707</v>
       </c>
       <c r="F5" t="n">
-        <v>523.4670674946888</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>105.5032593928756</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>105.5032593928756</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>611.4940911310146</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>611.4940911310146</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>611.4940911310146</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>611.4940911310146</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>611.4940911310146</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>957.4722849551215</v>
       </c>
       <c r="E8" t="n">
-        <v>764.6872557005402</v>
+        <v>571.6840323568772</v>
       </c>
       <c r="F8" t="n">
-        <v>353.7013509109326</v>
+        <v>564.7385316076737</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>146.7747235058606</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>146.7747235058606</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.7458755710939</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>188.7458755710939</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298186</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1128.599447747086</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>839.1822777101255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,13 +5302,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,16 +5764,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,22 +6171,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,7 +7122,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7156,16 +7156,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,16 +7262,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.6717966208081</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>32.78140656352421</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>171.7613411396968</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.6010493677088</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.2331835502362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>11.38012156696357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="L2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="N2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="O2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617468</v>
+        <v>-169958.2744617464</v>
       </c>
       <c r="C6" t="n">
         <v>420009.6047527976</v>
       </c>
       <c r="D6" t="n">
-        <v>420009.6047527976</v>
+        <v>420009.6047527981</v>
       </c>
       <c r="E6" t="n">
-        <v>-2227.550670417554</v>
+        <v>-1350.418536667989</v>
       </c>
       <c r="F6" t="n">
-        <v>522932.4858064788</v>
+        <v>523809.617940228</v>
       </c>
       <c r="G6" t="n">
-        <v>522932.4858064788</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="H6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="I6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402283</v>
       </c>
       <c r="J6" t="n">
-        <v>346509.2666138862</v>
+        <v>347386.3987476354</v>
       </c>
       <c r="K6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402283</v>
       </c>
       <c r="L6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="M6" t="n">
-        <v>388131.4705726415</v>
+        <v>389008.6027063914</v>
       </c>
       <c r="N6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402285</v>
       </c>
       <c r="O6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="P6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402285</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>389.9134987960685</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>48.99302522630197</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>214.7697264774462</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.8866414480752</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>125.7997447602677</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>17.49548950841381</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>117.0233846211325</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.02789197622005</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>22.71602402857303</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768322</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686859</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.987089538255</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>120.7944393485983</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
